--- a/COMPRA/Tabla-compra.xlsx
+++ b/COMPRA/Tabla-compra.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\git hub\An-lisis-Compra-Alquiler-Idealista\COMPRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FA1863-50E2-494A-B671-3BD2399BA028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F306736-5503-4942-B4B9-6ED3C3A65327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E4DC02F4-EA25-47F3-9D5C-3D369BFF11E5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E4DC02F4-EA25-47F3-9D5C-3D369BFF11E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Compra" sheetId="2" r:id="rId1"/>
@@ -1939,13 +1939,7 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{56EAC029-9EE7-4203-AB93-0BD0D723EB8C}" name="Tabla4" displayName="Tabla4" ref="A1:N203" totalsRowShown="0">
-  <autoFilter ref="A1:N203" xr:uid="{56EAC029-9EE7-4203-AB93-0BD0D723EB8C}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Algeciras"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:N203" xr:uid="{56EAC029-9EE7-4203-AB93-0BD0D723EB8C}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N203">
     <sortCondition ref="N1:N203"/>
   </sortState>
@@ -2288,7 +2282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6738691-DC19-418E-A2E6-43DE211D57EE}">
   <dimension ref="A1:K203"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:K203"/>
     </sheetView>
   </sheetViews>
@@ -8827,7 +8821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F80CDFF-108D-426C-B163-8F4A0A181E5A}">
   <dimension ref="A1:N203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10198,7 +10192,7 @@
         <v>57250</v>
       </c>
     </row>
-    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>491</v>
       </c>
@@ -10239,7 +10233,7 @@
         <v>58333.333333333336</v>
       </c>
     </row>
-    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>444</v>
       </c>
@@ -10485,7 +10479,7 @@
         <v>66000</v>
       </c>
     </row>
-    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>396</v>
       </c>
@@ -10772,7 +10766,7 @@
         <v>78000</v>
       </c>
     </row>
-    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>426</v>
       </c>
@@ -10977,7 +10971,7 @@
         <v>85000</v>
       </c>
     </row>
-    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>459</v>
       </c>
@@ -11141,7 +11135,7 @@
         <v>86500</v>
       </c>
     </row>
-    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>543</v>
       </c>
@@ -11182,7 +11176,7 @@
         <v>89333.333333333328</v>
       </c>
     </row>
-    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>558</v>
       </c>
@@ -11264,7 +11258,7 @@
         <v>93331.666666666672</v>
       </c>
     </row>
-    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>493</v>
       </c>
@@ -11305,7 +11299,7 @@
         <v>93333.333333333328</v>
       </c>
     </row>
-    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>532</v>
       </c>
@@ -11346,7 +11340,7 @@
         <v>93750</v>
       </c>
     </row>
-    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>492</v>
       </c>
@@ -11387,7 +11381,7 @@
         <v>95000</v>
       </c>
     </row>
-    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>419</v>
       </c>
@@ -11428,7 +11422,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>403</v>
       </c>
@@ -11469,7 +11463,7 @@
         <v>106000</v>
       </c>
     </row>
-    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>489</v>
       </c>
@@ -11510,7 +11504,7 @@
         <v>108333.33333333333</v>
       </c>
     </row>
-    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>448</v>
       </c>
@@ -11551,7 +11545,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>485</v>
       </c>
@@ -11592,7 +11586,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>460</v>
       </c>
@@ -11674,7 +11668,7 @@
         <v>111666.66666666667</v>
       </c>
     </row>
-    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>463</v>
       </c>
@@ -11756,7 +11750,7 @@
         <v>115000</v>
       </c>
     </row>
-    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>380</v>
       </c>
@@ -11797,7 +11791,7 @@
         <v>116000</v>
       </c>
     </row>
-    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>445</v>
       </c>
@@ -11920,7 +11914,7 @@
         <v>118000</v>
       </c>
     </row>
-    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>534</v>
       </c>
@@ -11961,7 +11955,7 @@
         <v>118333.33333333333</v>
       </c>
     </row>
-    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>430</v>
       </c>
@@ -12002,7 +11996,7 @@
         <v>119500</v>
       </c>
     </row>
-    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>442</v>
       </c>
@@ -12043,7 +12037,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>447</v>
       </c>
@@ -12084,7 +12078,7 @@
         <v>124500</v>
       </c>
     </row>
-    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>458</v>
       </c>
@@ -12125,7 +12119,7 @@
         <v>125000</v>
       </c>
     </row>
-    <row r="81" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>422</v>
       </c>
@@ -12166,7 +12160,7 @@
         <v>126750</v>
       </c>
     </row>
-    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>401</v>
       </c>
@@ -12207,7 +12201,7 @@
         <v>127142.85714285714</v>
       </c>
     </row>
-    <row r="83" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>523</v>
       </c>
@@ -12248,7 +12242,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>373</v>
       </c>
@@ -12289,7 +12283,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="85" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>507</v>
       </c>
@@ -12330,7 +12324,7 @@
         <v>131666.66666666666</v>
       </c>
     </row>
-    <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>398</v>
       </c>
@@ -12371,7 +12365,7 @@
         <v>132500</v>
       </c>
     </row>
-    <row r="87" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>554</v>
       </c>
@@ -12412,7 +12406,7 @@
         <v>137333.33333333334</v>
       </c>
     </row>
-    <row r="88" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>519</v>
       </c>
@@ -12453,7 +12447,7 @@
         <v>138333.33333333334</v>
       </c>
     </row>
-    <row r="89" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>462</v>
       </c>
@@ -12497,7 +12491,7 @@
         <v>146666.66666666666</v>
       </c>
     </row>
-    <row r="90" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>541</v>
       </c>
@@ -12620,7 +12614,7 @@
         <v>155000</v>
       </c>
     </row>
-    <row r="93" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>456</v>
       </c>
@@ -12702,7 +12696,7 @@
         <v>158000</v>
       </c>
     </row>
-    <row r="95" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>464</v>
       </c>
@@ -12743,7 +12737,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="96" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>552</v>
       </c>
@@ -12784,7 +12778,7 @@
         <v>162250</v>
       </c>
     </row>
-    <row r="97" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>497</v>
       </c>
@@ -12825,7 +12819,7 @@
         <v>162500</v>
       </c>
     </row>
-    <row r="98" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>404</v>
       </c>
@@ -12866,7 +12860,7 @@
         <v>164285.71428571429</v>
       </c>
     </row>
-    <row r="99" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>466</v>
       </c>
@@ -12907,7 +12901,7 @@
         <v>165000</v>
       </c>
     </row>
-    <row r="100" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>453</v>
       </c>
@@ -12948,7 +12942,7 @@
         <v>170000</v>
       </c>
     </row>
-    <row r="101" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>465</v>
       </c>
@@ -12989,7 +12983,7 @@
         <v>179000</v>
       </c>
     </row>
-    <row r="102" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>529</v>
       </c>
@@ -13030,7 +13024,7 @@
         <v>185000</v>
       </c>
     </row>
-    <row r="103" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>382</v>
       </c>
@@ -13071,7 +13065,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="104" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>472</v>
       </c>
@@ -13112,7 +13106,7 @@
         <v>206250</v>
       </c>
     </row>
-    <row r="105" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>488</v>
       </c>
@@ -13153,7 +13147,7 @@
         <v>213750</v>
       </c>
     </row>
-    <row r="106" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>469</v>
       </c>
@@ -13194,7 +13188,7 @@
         <v>216333.33333333334</v>
       </c>
     </row>
-    <row r="107" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>471</v>
       </c>
@@ -13235,7 +13229,7 @@
         <v>216333.33333333334</v>
       </c>
     </row>
-    <row r="108" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>436</v>
       </c>
@@ -13276,7 +13270,7 @@
         <v>216666.66666666666</v>
       </c>
     </row>
-    <row r="109" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>513</v>
       </c>
@@ -13317,7 +13311,7 @@
         <v>216666.66666666666</v>
       </c>
     </row>
-    <row r="110" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>517</v>
       </c>
@@ -13358,7 +13352,7 @@
         <v>224750</v>
       </c>
     </row>
-    <row r="111" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>428</v>
       </c>
@@ -13399,7 +13393,7 @@
         <v>226666.66666666666</v>
       </c>
     </row>
-    <row r="112" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>549</v>
       </c>
@@ -13440,7 +13434,7 @@
         <v>239500</v>
       </c>
     </row>
-    <row r="113" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>516</v>
       </c>
@@ -13484,7 +13478,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="114" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>522</v>
       </c>
@@ -13525,7 +13519,7 @@
         <v>251666.66666666666</v>
       </c>
     </row>
-    <row r="115" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>499</v>
       </c>
@@ -13566,7 +13560,7 @@
         <v>260000</v>
       </c>
     </row>
-    <row r="116" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>515</v>
       </c>
@@ -13607,7 +13601,7 @@
         <v>273750</v>
       </c>
     </row>
-    <row r="117" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>520</v>
       </c>
@@ -13648,7 +13642,7 @@
         <v>275000</v>
       </c>
     </row>
-    <row r="118" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>417</v>
       </c>
@@ -13689,7 +13683,7 @@
         <v>279000</v>
       </c>
     </row>
-    <row r="119" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>557</v>
       </c>
@@ -13730,7 +13724,7 @@
         <v>296000</v>
       </c>
     </row>
-    <row r="120" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>446</v>
       </c>
@@ -13771,7 +13765,7 @@
         <v>299000</v>
       </c>
     </row>
-    <row r="121" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>429</v>
       </c>
@@ -13812,7 +13806,7 @@
         <v>315000</v>
       </c>
     </row>
-    <row r="122" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>539</v>
       </c>
@@ -13853,7 +13847,7 @@
         <v>316666.66666666669</v>
       </c>
     </row>
-    <row r="123" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>427</v>
       </c>
@@ -13894,7 +13888,7 @@
         <v>319666.66666666669</v>
       </c>
     </row>
-    <row r="124" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>468</v>
       </c>
@@ -13935,7 +13929,7 @@
         <v>325000</v>
       </c>
     </row>
-    <row r="125" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>470</v>
       </c>
@@ -13976,7 +13970,7 @@
         <v>348333.33333333331</v>
       </c>
     </row>
-    <row r="126" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>545</v>
       </c>
@@ -14017,7 +14011,7 @@
         <v>356666.66666666669</v>
       </c>
     </row>
-    <row r="127" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>435</v>
       </c>
@@ -14058,7 +14052,7 @@
         <v>365800</v>
       </c>
     </row>
-    <row r="128" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>410</v>
       </c>
@@ -14099,7 +14093,7 @@
         <v>366666.66666666669</v>
       </c>
     </row>
-    <row r="129" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>402</v>
       </c>
@@ -14140,7 +14134,7 @@
         <v>372725</v>
       </c>
     </row>
-    <row r="130" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>407</v>
       </c>
@@ -14181,7 +14175,7 @@
         <v>378000</v>
       </c>
     </row>
-    <row r="131" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>424</v>
       </c>
@@ -14222,7 +14216,7 @@
         <v>378000</v>
       </c>
     </row>
-    <row r="132" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>487</v>
       </c>
@@ -14263,7 +14257,7 @@
         <v>390000</v>
       </c>
     </row>
-    <row r="133" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>510</v>
       </c>
@@ -14304,7 +14298,7 @@
         <v>395000</v>
       </c>
     </row>
-    <row r="134" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>481</v>
       </c>
@@ -14345,7 +14339,7 @@
         <v>398333.33333333331</v>
       </c>
     </row>
-    <row r="135" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>482</v>
       </c>
@@ -14386,7 +14380,7 @@
         <v>398333.33333333331</v>
       </c>
     </row>
-    <row r="136" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>418</v>
       </c>
@@ -14427,7 +14421,7 @@
         <v>399000</v>
       </c>
     </row>
-    <row r="137" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>473</v>
       </c>
@@ -14471,7 +14465,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="138" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>474</v>
       </c>
@@ -14512,7 +14506,7 @@
         <v>420000</v>
       </c>
     </row>
-    <row r="139" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>503</v>
       </c>
@@ -14553,7 +14547,7 @@
         <v>431666.66666666669</v>
       </c>
     </row>
-    <row r="140" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>415</v>
       </c>
@@ -14594,7 +14588,7 @@
         <v>432500</v>
       </c>
     </row>
-    <row r="141" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>406</v>
       </c>
@@ -14635,7 +14629,7 @@
         <v>436000</v>
       </c>
     </row>
-    <row r="142" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>479</v>
       </c>
@@ -14676,7 +14670,7 @@
         <v>445000</v>
       </c>
     </row>
-    <row r="143" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>478</v>
       </c>
@@ -14717,7 +14711,7 @@
         <v>445000</v>
       </c>
     </row>
-    <row r="144" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>500</v>
       </c>
@@ -14758,7 +14752,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="145" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>505</v>
       </c>
@@ -14799,7 +14793,7 @@
         <v>453000</v>
       </c>
     </row>
-    <row r="146" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>526</v>
       </c>
@@ -14840,7 +14834,7 @@
         <v>465000</v>
       </c>
     </row>
-    <row r="147" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>395</v>
       </c>
@@ -14881,7 +14875,7 @@
         <v>470000</v>
       </c>
     </row>
-    <row r="148" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>536</v>
       </c>
@@ -14922,7 +14916,7 @@
         <v>475000</v>
       </c>
     </row>
-    <row r="149" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>452</v>
       </c>
@@ -14963,7 +14957,7 @@
         <v>483333.33333333331</v>
       </c>
     </row>
-    <row r="150" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>376</v>
       </c>
@@ -15004,7 +14998,7 @@
         <v>491666.66666666669</v>
       </c>
     </row>
-    <row r="151" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>371</v>
       </c>
@@ -15045,7 +15039,7 @@
         <v>491666.66666666669</v>
       </c>
     </row>
-    <row r="152" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>564</v>
       </c>
@@ -15086,7 +15080,7 @@
         <v>493105</v>
       </c>
     </row>
-    <row r="153" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>533</v>
       </c>
@@ -15127,7 +15121,7 @@
         <v>510000</v>
       </c>
     </row>
-    <row r="154" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>537</v>
       </c>
@@ -15168,7 +15162,7 @@
         <v>515000</v>
       </c>
     </row>
-    <row r="155" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>501</v>
       </c>
@@ -15209,7 +15203,7 @@
         <v>525000</v>
       </c>
     </row>
-    <row r="156" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>451</v>
       </c>
@@ -15250,7 +15244,7 @@
         <v>526666.66666666663</v>
       </c>
     </row>
-    <row r="157" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>476</v>
       </c>
@@ -15291,7 +15285,7 @@
         <v>531666.66666666663</v>
       </c>
     </row>
-    <row r="158" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>477</v>
       </c>
@@ -15332,7 +15326,7 @@
         <v>531666.66666666663</v>
       </c>
     </row>
-    <row r="159" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>399</v>
       </c>
@@ -15373,7 +15367,7 @@
         <v>537500</v>
       </c>
     </row>
-    <row r="160" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>467</v>
       </c>
@@ -15414,7 +15408,7 @@
         <v>537500</v>
       </c>
     </row>
-    <row r="161" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>514</v>
       </c>
@@ -15455,7 +15449,7 @@
         <v>547500</v>
       </c>
     </row>
-    <row r="162" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>416</v>
       </c>
@@ -15496,7 +15490,7 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="163" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>504</v>
       </c>
@@ -15537,7 +15531,7 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="164" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>496</v>
       </c>
@@ -15578,7 +15572,7 @@
         <v>558333.33333333337</v>
       </c>
     </row>
-    <row r="165" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>483</v>
       </c>
@@ -15619,7 +15613,7 @@
         <v>560000</v>
       </c>
     </row>
-    <row r="166" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>540</v>
       </c>
@@ -15660,7 +15654,7 @@
         <v>566666.66666666663</v>
       </c>
     </row>
-    <row r="167" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>512</v>
       </c>
@@ -15701,7 +15695,7 @@
         <v>570000</v>
       </c>
     </row>
-    <row r="168" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>546</v>
       </c>
@@ -15742,7 +15736,7 @@
         <v>587500</v>
       </c>
     </row>
-    <row r="169" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>414</v>
       </c>
@@ -15783,7 +15777,7 @@
         <v>590000</v>
       </c>
     </row>
-    <row r="170" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>524</v>
       </c>
@@ -15824,7 +15818,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="171" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>484</v>
       </c>
@@ -15865,7 +15859,7 @@
         <v>618750</v>
       </c>
     </row>
-    <row r="172" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>535</v>
       </c>
@@ -15906,7 +15900,7 @@
         <v>625000</v>
       </c>
     </row>
-    <row r="173" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>550</v>
       </c>
@@ -15947,7 +15941,7 @@
         <v>662500</v>
       </c>
     </row>
-    <row r="174" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>555</v>
       </c>
@@ -15988,7 +15982,7 @@
         <v>675000</v>
       </c>
     </row>
-    <row r="175" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>563</v>
       </c>
@@ -16029,7 +16023,7 @@
         <v>675000</v>
       </c>
     </row>
-    <row r="176" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>392</v>
       </c>
@@ -16070,7 +16064,7 @@
         <v>687500</v>
       </c>
     </row>
-    <row r="177" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>527</v>
       </c>
@@ -16111,7 +16105,7 @@
         <v>696666.66666666663</v>
       </c>
     </row>
-    <row r="178" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>528</v>
       </c>
@@ -16152,7 +16146,7 @@
         <v>707500</v>
       </c>
     </row>
-    <row r="179" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>565</v>
       </c>
@@ -16193,7 +16187,7 @@
         <v>720000</v>
       </c>
     </row>
-    <row r="180" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>542</v>
       </c>
@@ -16234,7 +16228,7 @@
         <v>745000</v>
       </c>
     </row>
-    <row r="181" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>480</v>
       </c>
@@ -16275,7 +16269,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="182" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>393</v>
       </c>
@@ -16316,7 +16310,7 @@
         <v>764285.71428571432</v>
       </c>
     </row>
-    <row r="183" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>389</v>
       </c>
@@ -16357,7 +16351,7 @@
         <v>780000</v>
       </c>
     </row>
-    <row r="184" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>390</v>
       </c>
@@ -16398,7 +16392,7 @@
         <v>785714.28571428568</v>
       </c>
     </row>
-    <row r="185" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>391</v>
       </c>
@@ -16439,7 +16433,7 @@
         <v>785714.28571428568</v>
       </c>
     </row>
-    <row r="186" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>538</v>
       </c>
@@ -16480,7 +16474,7 @@
         <v>790000</v>
       </c>
     </row>
-    <row r="187" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>495</v>
       </c>
@@ -16521,7 +16515,7 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="188" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>433</v>
       </c>
@@ -16562,7 +16556,7 @@
         <v>825000</v>
       </c>
     </row>
-    <row r="189" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>434</v>
       </c>
@@ -16603,7 +16597,7 @@
         <v>825000</v>
       </c>
     </row>
-    <row r="190" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>511</v>
       </c>
@@ -16644,7 +16638,7 @@
         <v>825000</v>
       </c>
     </row>
-    <row r="191" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>450</v>
       </c>
@@ -16685,7 +16679,7 @@
         <v>833333.33333333337</v>
       </c>
     </row>
-    <row r="192" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>551</v>
       </c>
@@ -16726,7 +16720,7 @@
         <v>847500</v>
       </c>
     </row>
-    <row r="193" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>553</v>
       </c>
@@ -16767,7 +16761,7 @@
         <v>850000</v>
       </c>
     </row>
-    <row r="194" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>454</v>
       </c>
@@ -16808,7 +16802,7 @@
         <v>860000</v>
       </c>
     </row>
-    <row r="195" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>441</v>
       </c>
@@ -16849,7 +16843,7 @@
         <v>950000</v>
       </c>
     </row>
-    <row r="196" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>377</v>
       </c>
@@ -16890,7 +16884,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="197" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>502</v>
       </c>
@@ -16931,7 +16925,7 @@
         <v>1100000</v>
       </c>
     </row>
-    <row r="198" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>455</v>
       </c>
@@ -16972,7 +16966,7 @@
         <v>1187500</v>
       </c>
     </row>
-    <row r="199" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>439</v>
       </c>
@@ -17013,7 +17007,7 @@
         <v>1350000</v>
       </c>
     </row>
-    <row r="200" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>440</v>
       </c>
@@ -17054,7 +17048,7 @@
         <v>1350000</v>
       </c>
     </row>
-    <row r="201" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>525</v>
       </c>
@@ -17095,7 +17089,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="202" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>562</v>
       </c>
@@ -17136,7 +17130,7 @@
         <v>2066666.6666666667</v>
       </c>
     </row>
-    <row r="203" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>475</v>
       </c>
